--- a/数据整理/stocks/A股/上证主板/603599-广信股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603599-广信股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>50.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.29</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.73</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3748</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001644</t>
+          <t>100056</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇丰晋信智造先锋股票C</t>
+          <t>富国低碳环保混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.29</t>
+          <t>22.08</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7441</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009334</t>
+          <t>002340</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富国融享18个月定期开放混合</t>
+          <t>富国价值优势混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>91.45</t>
+          <t>12.08</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3600</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>100056</t>
+          <t>001644</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富国低碳环保混合</t>
+          <t>汇丰晋信智造先锋股票C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>90.02</t>
+          <t>10.13</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2765</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>10</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002340</t>
+          <t>009334</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富国价值优势混合</t>
+          <t>富国融享18个月定期开放混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.76</t>
+          <t>7.33</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1994</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -637,7 +697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,15 +718,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -688,15 +758,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>26.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.03</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>6.72</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7882</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -716,15 +796,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>10.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.03</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>6.72</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6807</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -734,26 +824,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004674</t>
+          <t>100056</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富国新机遇灵活配置混合A</t>
+          <t>富国低碳环保混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.54</t>
+          <t>18.69</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>78.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6336</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -762,26 +862,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004675</t>
+          <t>002340</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富国新机遇灵活配置混合C</t>
+          <t>富国价值优势混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.54</t>
+          <t>17.51</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6234</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -790,26 +900,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009334</t>
+          <t>001740</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富国融享18个月定期开放混合</t>
+          <t>光大保德信中国制造2025灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.67</t>
+          <t>11.65</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4194</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -828,15 +948,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>11.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>80.99</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>3.07</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3604</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>8</v>
       </c>
     </row>
@@ -846,26 +976,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006143</t>
+          <t>009334</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>恒生前海中证质量成长低波动指数A</t>
+          <t>富国融享18个月定期开放混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>7.54</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3114</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -874,25 +1014,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006144</t>
+          <t>360005</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>恒生前海中证质量成长低波动指数C</t>
+          <t>光大保德信红利混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>7.15</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+          <t>78.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1909</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>6</v>
       </c>
     </row>
@@ -902,26 +1052,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>360005</t>
+          <t>004674</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>光大保德信红利混合</t>
+          <t>富国新机遇灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>78.43</t>
+          <t>5.33</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1492</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006527</t>
+          <t>008313</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>富国优质发展混合A</t>
+          <t>光大保德信研究精选混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>81.75</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>9</v>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1369</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -958,25 +1128,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>006528</t>
+          <t>006527</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>富国优质发展混合C</t>
+          <t>富国优质发展混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>81.75</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>3.06</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0906</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>9</v>
       </c>
     </row>
@@ -986,26 +1166,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>100056</t>
+          <t>004675</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>富国低碳环保混合</t>
+          <t>富国新机遇灵活配置混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>78.59</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>5</v>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1014,25 +1204,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>001740</t>
+          <t>006528</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>光大保德信中国制造2025灵活配置混合</t>
+          <t>富国优质发展混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>93.52</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
+          <t>81.75</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1052,15 +1252,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>72.80</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>2.23</t>
         </is>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>002340</t>
+          <t>006143</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>富国价值优势混合</t>
+          <t>恒生前海中证质量成长低波动指数A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>93.38</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>4</v>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>008313</t>
+          <t>006144</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>光大保德信研究精选混合</t>
+          <t>恒生前海中证质量成长低波动指数C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>94.52</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>7</v>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603599-广信股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603599-广信股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1353,4 +1354,896 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001643</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7260</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>540003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5470</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002340</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国价值优势混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>32.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7205</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001644</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6397</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001740</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>光大保德信中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4051</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001047</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>光大保德信国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3587</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009334</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国融享18个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3009</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010400</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国融泰三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3008</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>360005</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>光大保德信红利混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.77</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1845</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001463</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>光大保德信一带一路战略主题混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1618</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004604</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国新活力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1523</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000849</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>79.71</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1419</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008313</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>光大保德信研究精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1326</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>960003</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合H</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>77.12</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1126</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002773</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>光大保德信铭鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1036</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005632</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004605</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国新活力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005457</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>景顺长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002774</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>光大保德信铭鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000850</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>79.71</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006165</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006166</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603599-广信股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603599-广信股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2246,4 +2247,820 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>540003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>83.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4776</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001643</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8729</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011578</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇丰晋信核心成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>43.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6664</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002340</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国价值优势混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>46.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6307</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001644</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6917</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010400</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国融泰三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3268</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009334</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国融享18个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3263</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004674</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2927</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011579</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇丰晋信核心成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2297</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>960003</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合H</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1616</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000849</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1540</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008313</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>光大保德信研究精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1433</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004604</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国新活力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1307</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011410</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13.45</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1224</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004675</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011411</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000850</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004605</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国新活力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159846</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>建信中证1000交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005247</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国都量化精选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>69.76</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603599-广信股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603599-广信股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3063,4 +3064,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603599-广信股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603599-广信股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3072,7 +3073,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3083,17 +3084,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3103,14 +3124,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.34</v>
+          <t>540003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>102.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2713</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -3119,14 +3162,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>22</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.17</v>
+          <t>011578</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信核心成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>49.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6295</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -3135,14 +3200,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>16</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.42</v>
+          <t>010400</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国融泰三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>39.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1711</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -3151,13 +3238,1177 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>002340</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国价值优势混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>46.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1293</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001644</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8085</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004674</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6239</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011579</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇丰晋信核心成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2777</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001643</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2378</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009334</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国融享18个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2137</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161039</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强LOF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1781</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>960003</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合H</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1771</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519983</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1515</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011410</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1483</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008313</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>光大保德信研究精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1404</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004675</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1075</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005457</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>景顺长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1037</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>460009</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0794</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005632</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011231</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>光大保德信锦弘混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011411</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004194</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006181</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>78.47</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004195</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006182</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>78.47</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011232</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>光大保德信锦弘混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>160415</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华安量化多因子混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006143</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005247</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国都量化精选混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010246</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004221</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006144</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>31</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.65</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.95</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603599-广信股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603599-广信股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4307,7 +4308,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4318,17 +4319,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4338,14 +4359,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>31</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.65</v>
+          <t>002340</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国价值优势混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>69.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0729</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -4354,14 +4397,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>20</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.34</v>
+          <t>011578</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信核心成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4052</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -4370,14 +4435,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>22</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.17</v>
+          <t>001643</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>29.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3352</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -4386,14 +4473,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>16</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.42</v>
+          <t>010400</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国融泰三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>34.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9568</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -4402,13 +4511,1041 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>004674</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5983</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001644</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5008</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009334</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国融享18个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4290</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001113</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.79</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4033</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002124</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发新兴产业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2711</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011579</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇丰晋信核心成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1934</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004604</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国新活力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1853</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161039</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强LOF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1803</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011410</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1096</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004675</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0987</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012878</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中信建投量化精选6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004605</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国新活力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012879</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中信建投量化精选6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011411</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006181</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004194</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013242</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>北信瑞丰优势行业股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006182</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004195</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005536</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>渤海汇金量化成长混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008300</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004344</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方大数据100指数C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002952</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>建信多因子量化股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008301</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>28</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.98</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>31</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>16</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.95</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603599-广信股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603599-广信股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5428,7 +5429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5439,17 +5440,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5459,14 +5480,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>28</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.98</v>
+          <t>002340</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国价值优势混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5659</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -5475,14 +5518,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>31</v>
-      </c>
-      <c r="D3" t="n">
-        <v>11.65</v>
+          <t>010400</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国融泰三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>37.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1825</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -5491,14 +5556,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>20</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.34</v>
+          <t>004674</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>33.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8599</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -5507,14 +5594,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>22</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.17</v>
+          <t>009334</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国融享18个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3000</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -5523,14 +5632,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>16</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5.42</v>
+          <t>004675</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1272</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -5539,13 +5670,525 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>011410</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0926</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007831</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0794</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014164</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国融享18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0794</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007146</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华研究智选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007832</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011411</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004194</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006181</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006182</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004195</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>28</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.98</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>31</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.34</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>22</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>16</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>5</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>2.95</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603599-广信股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603599-广信股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>5.49</v>
+        <v>4.89</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>8.98</v>
+        <v>5.49</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D4" t="n">
-        <v>11.65</v>
+        <v>8.98</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D5" t="n">
-        <v>10.34</v>
+        <v>11.65</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" t="n">
-        <v>7.17</v>
+        <v>10.34</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D7" t="n">
-        <v>5.42</v>
+        <v>7.17</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>16</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>5</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>2.95</v>
       </c>
     </row>
@@ -600,6 +617,556 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002340</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国价值优势混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>83.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3422</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010400</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国融泰三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0814</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004674</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8129</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009334</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国融享18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2749</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005457</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0913</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004675</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014164</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国融享18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0728</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007146</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华研究智选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>76.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>015496</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006182</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>015495</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006181</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004606</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>上投摩根优选多因子股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1225,7 +1792,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2345,7 +2912,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3579,7 +4146,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4395,7 +4962,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5287,7 +5854,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5951,7 +6518,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603599-广信股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603599-广信股份.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>4.89</v>
+        <v>8.869999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>5.49</v>
+        <v>4.89</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>8.98</v>
+        <v>5.49</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D5" t="n">
-        <v>11.65</v>
+        <v>8.98</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D6" t="n">
-        <v>10.34</v>
+        <v>11.65</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" t="n">
-        <v>7.17</v>
+        <v>10.34</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D8" t="n">
-        <v>5.42</v>
+        <v>7.17</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>16</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>5</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>2.95</v>
       </c>
     </row>
@@ -616,7 +633,765 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001643</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3748</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>100056</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国低碳环保混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7441</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002340</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国价值优势混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3600</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001644</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2765</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009334</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国融享18个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1994</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002340</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国价值优势混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>77.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6767</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007130</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中庚小盘价值股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>76.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2464</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010400</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国融泰三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>34.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4577</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004674</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>38.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1790</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010264</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>33.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>66.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5913</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009334</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国融享18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3438</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004675</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1294</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014164</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国融享18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0907</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007146</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华研究智选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0785</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010265</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>66.88</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006181</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006182</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1166,7 +1941,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1792,7 +2567,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2912,7 +3687,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4146,7 +4921,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4962,7 +5737,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5854,7 +6629,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6516,250 +7291,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001643</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇丰晋信智造先锋股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>50.36</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.29</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.3748</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>100056</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富国低碳环保混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>22.08</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.02</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.7441</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002340</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富国价值优势混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>12.08</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.76</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3600</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001644</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>汇丰晋信智造先锋股票C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>10.13</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.29</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2765</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009334</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>富国融享18个月定期开放混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>7.33</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.45</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1994</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>